--- a/数据整理/stocks/A股/深证主板/002304-洋河股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002304-洋河股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14662,7 +14663,6 @@
           <t>华夏回报混合H</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
           <t>64.79</t>
@@ -14678,6 +14678,5112 @@
       </c>
       <c r="H121" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H134"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>697.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>88.7373</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005827</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>898.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>87.0126</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>188.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15.5284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>166.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>14.4765</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009342</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达优质企业三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>116.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>11.2886</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>158.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>7.5070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>70.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6.7872</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>69.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6.3047</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5.2503</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>54.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5.1960</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010196</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.9588</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>52.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.8926</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>59.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>4.8163</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4.4143</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>39.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.7288</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.6478</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001631</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>65.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3.5441</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>45.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3.5379</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>3.4629</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>70.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>3.3536</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>3.0710</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.8319</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>30.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.7540</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001632</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>49.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2.6964</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>270007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发大盘成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2.5270</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2.2425</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>53.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>54.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2.1751</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>30.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2.1156</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2.0794</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2.0672</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010143</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>交银施罗德启欣混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>50.70</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.8658</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>30.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.7905</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>46.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.6999</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.6576</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16.98</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.6572</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.5251</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159905</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银深证红利ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.4813</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.4042</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.3666</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.3256</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>22.37</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1.2617</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000529</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>19.60</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1.1917</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008273</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发优质生活混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1.1181</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1.1009</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1.0969</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010483</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>交银施罗德启道混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>56.23</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>59.51</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1.0346</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010197</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>65.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.8904</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.7878</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>14.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.7407</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.6814</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.6204</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5925</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010594</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发睿选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5883</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>15.64</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.5693</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.5495</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.5398</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.5396</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4964</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>68.11</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3903</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>77.52</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3791</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3735</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159902</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏中小企业板ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3597</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3566</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3084</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007548</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>易方达ESG责任投资股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2878</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2875</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2859</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国消费升级混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2682</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2360</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2236</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>58.53</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>77.52</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010700</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东方红锦丰优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001202</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>东方红领先精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001193</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中金消费升级股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>161118</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>易方达中小板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011283</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>151002</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>银河收益债券</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>163111</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006712</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>58.53</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009508</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>004153</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004154</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>159907</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>广发中小板300ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006713</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006351</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际红利指数A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001296</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>长城转型成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>53.69</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华富中小板指数增强</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>007799</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>162510</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>国联安双力中小板综指 (LOF)</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>006352</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际红利指数C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>60.89</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002304-洋河股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002304-洋河股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19789,4 +19790,4686 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H123"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>928.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>111.5669</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005827</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>698.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>66.2150</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>161.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>12.4463</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>145.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>56.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>11.1560</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009342</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达优质企业三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>9.3990</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.2959</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>140.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6.0763</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>136.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6.0091</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5.7722</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>129.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5.6177</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>54.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>5.2230</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>60.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.9068</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>4.6888</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001631</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4.4593</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>47.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>4.2327</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>42.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.9203</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001632</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3.5121</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3.3887</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>49.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>3.3614</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010969</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>32.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>3.0634</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.9873</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.7711</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.2728</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>70.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2.2285</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2.2058</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>37.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.9684</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.6524</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>270007</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发大盘成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>35.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.4598</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.4596</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.3536</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.1434</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159905</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银深证红利ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>30.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.1049</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>75.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.0760</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.0403</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.0109</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.9600</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.9374</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.9289</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010197</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.8974</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7401</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7046</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6981</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6626</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6484</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000529</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5739</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5458</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4812</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4800</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4394</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010970</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4058</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3696</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010594</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发睿选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3405</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3401</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>64.00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3128</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>37.85</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2615</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2545</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2543</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007548</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>易方达ESG责任投资股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2251</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1831</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004976</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>53.96</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004977</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>53.96</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1569</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010700</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>东方红锦丰优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002783</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001192</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001202</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东方红领先精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159708</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>西部利得深证红利交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011283</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>97.72</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002784</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>73.81</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001363</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006351</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际红利指数A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>162510</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>国联安双力中小板综指 (LOF)</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>006352</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际红利指数C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>56.62</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002304-洋河股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002304-洋河股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24451,7 +24452,6 @@
           <t>东方红启程三年持有期混合型证券投资基金B</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
           <t>91.77</t>
@@ -24467,6 +24467,106 @@
       </c>
       <c r="H123" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>122</v>
+      </c>
+      <c r="D2" t="n">
+        <v>325.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>133</v>
+      </c>
+      <c r="D3" t="n">
+        <v>351.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>120</v>
+      </c>
+      <c r="D4" t="n">
+        <v>204.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>252</v>
+      </c>
+      <c r="D5" t="n">
+        <v>319.66</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002304-洋河股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002304-洋河股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24480,7 +24481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24491,17 +24492,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -24511,14 +24532,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>122</v>
-      </c>
-      <c r="D2" t="n">
-        <v>325.07</v>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>776.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>82.8259</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -24527,14 +24570,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>133</v>
-      </c>
-      <c r="D3" t="n">
-        <v>351.19</v>
+          <t>005827</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>676.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>62.0779</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -24543,14 +24608,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>120</v>
-      </c>
-      <c r="D4" t="n">
-        <v>204.56</v>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>199.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>16.4668</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -24559,13 +24646,6373 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>138.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>52.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10.1039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009342</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达优质企业三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>9.1534</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>165.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.4192</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>132.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.9666</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>120.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.6484</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012582</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5.3213</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>133.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5.0669</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>116.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>5.0155</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>57.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>55.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.3488</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>47.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>4.2175</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010196</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>72.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4.1801</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>60.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.7758</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.7145</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3.5993</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>52.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3.3566</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010969</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>35.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>3.2430</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>3.2040</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.8042</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.6024</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>65.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.2103</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2.1355</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>40.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>65.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2.0975</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>270007</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发大盘成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>36.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2.0464</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2.0263</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.9277</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.8124</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.7122</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159905</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银深证红利ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>36.87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.3163</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.1418</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>48.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.0872</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.0017</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.9545</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.9257</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.9215</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008273</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发优质生活混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.8945</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>180010</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华优质增长混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.8697</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000529</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.8422</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.8187</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>58.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.8156</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011405</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.7772</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010197</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.7697</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.7370</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6994</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>39.90</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.6903</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.6866</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.6720</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.6589</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.6270</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5524</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5414</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012434</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华多元回报一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.5234</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010594</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发睿选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4843</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4775</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4750</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001384</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4740</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011847</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达商业模式优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>41.32</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4695</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>360016</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>光大保德信行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4312</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3970</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3933</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3922</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>66.99</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3874</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3446</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3441</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3402</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3253</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3119</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3018</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3018</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010970</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2986</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2890</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2870</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2851</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2827</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2823</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2752</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2715</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012583</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>76.89</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2533</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2375</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2230</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007548</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>易方达ESG责任投资股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2145</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011893</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>易方达长期价值混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>31.77</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富国消费升级混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159736</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004976</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>47.27</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004977</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>47.27</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002783</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>23.10</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>27.86</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010700</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>东方红锦丰优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>15.59</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001202</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>东方红领先精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010560</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>013595</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005109</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006302</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>银华行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>74.09</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>159708</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>西部利得深证红利交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>001385</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>512770</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华夏战略新兴成指ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>27.86</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>002784</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>23.10</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005519</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>银华混改红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>71.83</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>96.19</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011848</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>易方达商业模式优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>41.32</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>华富中小板指数增强</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>011894</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>易方达长期价值混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>162510</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>国联安双力中小板综指 (LOF)</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>52.83</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>168</v>
+      </c>
+      <c r="D2" t="n">
+        <v>304.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>122</v>
+      </c>
+      <c r="D3" t="n">
+        <v>325.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>133</v>
+      </c>
+      <c r="D4" t="n">
+        <v>351.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>120</v>
+      </c>
+      <c r="D5" t="n">
+        <v>204.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>252</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>319.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002304-洋河股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002304-洋河股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30911,7 +30912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30922,17 +30923,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -30942,14 +30963,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>168</v>
-      </c>
-      <c r="D2" t="n">
-        <v>304.67</v>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>688.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>79.7677</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -30958,14 +31001,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>122</v>
-      </c>
-      <c r="D3" t="n">
-        <v>325.07</v>
+          <t>005827</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>552.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>49.2474</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -30974,14 +31039,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>133</v>
-      </c>
-      <c r="D4" t="n">
-        <v>351.19</v>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>237.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15.9723</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -30990,14 +31077,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>120</v>
-      </c>
-      <c r="D5" t="n">
-        <v>204.56</v>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中小盘混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>168.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>13.5611</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -31006,13 +31115,6243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009342</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达优质企业三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7.2288</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>125.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>44.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.7041</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>125.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>44.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6.7041</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>165.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6.2035</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012582</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>51.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.6406</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>59.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.2535</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010196</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>57.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.1485</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.1202</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.7333</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159736</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>69.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.4705</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>49.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.4276</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.2229</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>51.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.9072</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012406</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>永赢长远价值混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>54.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.8768</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>57.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.6376</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>34.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.4598</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>50.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.3505</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.2304</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.1491</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.8856</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>270007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发大盘成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.7850</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>48.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.7705</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.6542</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.6246</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>28.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.4707</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.4612</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.4612</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011847</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达商业模式优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.0699</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159905</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银深证红利ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>28.60</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9896</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8250</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7736</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010197</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7609</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>16.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7600</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008273</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发优质生活混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7575</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011893</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达长期价值混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.48</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>75.62</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7556</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000529</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7132</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6640</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6290</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6239</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>49.04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5906</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012225</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>17.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5606</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5509</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010628</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发瑞轩三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5346</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5278</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5193</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5090</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5012</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4472</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4472</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4451</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4407</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010594</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发睿选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4396</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4391</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4391</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4180</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>17.24</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3879</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>78.10</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3807</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005612</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实核心优势股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3695</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3448</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>65.93</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3441</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>65.93</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3441</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3143</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3044</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007548</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>易方达ESG责任投资股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2524</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012407</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>永赢长远价值混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014074</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2137</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012583</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2131</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012033</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>广发睿盛混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011013</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长城消费30股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013867</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001384</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005109</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004976</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>004977</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>75.49</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>59.15</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>159708</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>西部利得深证红利交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>519629</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>014075</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011283</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>519630</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001385</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>159789</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>建信中证饮料主题ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011848</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>易方达商业模式优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>012034</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>广发睿盛混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>012226</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>96.63</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>95.90</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>011014</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>长城消费30股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>011894</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>易方达长期价值混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>75.62</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>013868</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>162510</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>国联安双力中小板综指 (LOF)</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>165</v>
+      </c>
+      <c r="D2" t="n">
+        <v>274.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>168</v>
+      </c>
+      <c r="D3" t="n">
+        <v>304.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>122</v>
+      </c>
+      <c r="D4" t="n">
+        <v>325.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>133</v>
+      </c>
+      <c r="D5" t="n">
+        <v>351.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>120</v>
+      </c>
+      <c r="D6" t="n">
+        <v>204.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>252</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>319.66</v>
       </c>
     </row>
